--- a/台大學生人數統計_107.xlsx
+++ b/台大學生人數統計_107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\玨\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\玨\Elite Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5E0AB-05D2-4BC3-961F-2D496E92908D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D759EBC-3105-4552-B315-7C952DD4F89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1110" yWindow="1395" windowWidth="9795" windowHeight="7365" xr2:uid="{DF9A8F35-BB86-4F43-937E-16364088A0EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>管院年級比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66948E49-7366-4DE9-963A-D01A12DB36C4}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -645,6 +649,9 @@
       <c r="P2" t="s">
         <v>7</v>
       </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
       <c r="S2" t="s">
         <v>28</v>
       </c>
@@ -671,15 +678,15 @@
         <v>0.12715596330275231</v>
       </c>
       <c r="E3" s="1">
-        <f>I3/188</f>
+        <f t="shared" ref="E3:E13" si="1">I3/188</f>
         <v>0.11170212765957446</v>
       </c>
       <c r="F3" s="1">
-        <f>C3/(10900-1433)</f>
+        <f t="shared" ref="F3:F8" si="2">C3/(10900-1433)</f>
         <v>0.14640329565860358</v>
       </c>
       <c r="G3" s="1">
-        <f>I3/(188-35)</f>
+        <f t="shared" ref="G3:G8" si="3">I3/(188-35)</f>
         <v>0.13725490196078433</v>
       </c>
       <c r="H3">
@@ -711,6 +718,10 @@
       <c r="P3">
         <v>316</v>
       </c>
+      <c r="Q3">
+        <f>(K3+M3+O3)/(L3+N3+P3+K3+M3+O3)</f>
+        <v>0.31096681096681095</v>
+      </c>
       <c r="R3" t="s">
         <v>30</v>
       </c>
@@ -752,15 +763,15 @@
         <v>9.8348623853211012E-2</v>
       </c>
       <c r="E4" s="1">
-        <f>I4/188</f>
+        <f t="shared" si="1"/>
         <v>0.10106382978723404</v>
       </c>
       <c r="F4" s="1">
-        <f>C4/(10900-1433)</f>
+        <f t="shared" si="2"/>
         <v>0.11323544945600507</v>
       </c>
       <c r="G4" s="1">
-        <f>I4/(188-35)</f>
+        <f t="shared" si="3"/>
         <v>0.12418300653594772</v>
       </c>
       <c r="H4">
@@ -771,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="1">ROUND(H4-I4, 0)</f>
+        <f t="shared" ref="J4:J13" si="4">ROUND(H4-I4, 0)</f>
         <v>-1</v>
       </c>
       <c r="K4">
@@ -791,6 +802,10 @@
       </c>
       <c r="P4">
         <v>118</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q13" si="5">(K4+M4+O4)/(L4+N4+P4+K4+M4+O4)</f>
+        <v>0.69682835820895528</v>
       </c>
       <c r="R4" t="s">
         <v>31</v>
@@ -833,15 +848,15 @@
         <v>0.10862385321100917</v>
       </c>
       <c r="E5" s="1">
-        <f>I5/188</f>
+        <f t="shared" si="1"/>
         <v>0.10638297872340426</v>
       </c>
       <c r="F5" s="1">
-        <f>C5/(10900-1433)</f>
+        <f t="shared" si="2"/>
         <v>0.12506601880215484</v>
       </c>
       <c r="G5" s="1">
-        <f>I5/(188-35)</f>
+        <f t="shared" si="3"/>
         <v>0.13071895424836602</v>
       </c>
       <c r="H5">
@@ -852,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5">
@@ -872,6 +887,10 @@
       </c>
       <c r="P5">
         <v>204</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0.4358108108108108</v>
       </c>
       <c r="Y5" t="s">
         <v>9</v>
@@ -899,15 +918,15 @@
         <v>9.6880733944954125E-2</v>
       </c>
       <c r="E6" s="1">
-        <f>I6/188</f>
+        <f t="shared" si="1"/>
         <v>0.12234042553191489</v>
       </c>
       <c r="F6" s="1">
-        <f>C6/(10900-1433)</f>
+        <f t="shared" si="2"/>
         <v>0.11154536812084082</v>
       </c>
       <c r="G6" s="1">
-        <f>I6/(188-35)</f>
+        <f t="shared" si="3"/>
         <v>0.15032679738562091</v>
       </c>
       <c r="H6">
@@ -918,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="K6">
@@ -938,6 +957,10 @@
       </c>
       <c r="P6">
         <v>152</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.55113636363636365</v>
       </c>
       <c r="S6" t="s">
         <v>33</v>
@@ -974,15 +997,15 @@
         <v>0.12614678899082568</v>
       </c>
       <c r="E7" s="1">
-        <f>I7/188</f>
+        <f t="shared" si="1"/>
         <v>0.10638297872340426</v>
       </c>
       <c r="F7" s="1">
-        <f>C7/(10900-1433)</f>
+        <f t="shared" si="2"/>
         <v>0.14524136474067814</v>
       </c>
       <c r="G7" s="1">
-        <f>I7/(188-35)</f>
+        <f t="shared" si="3"/>
         <v>0.13071895424836602</v>
       </c>
       <c r="H7">
@@ -993,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K7">
@@ -1013,6 +1036,10 @@
       </c>
       <c r="P7">
         <v>85</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.80436363636363639</v>
       </c>
       <c r="R7" t="s">
         <v>34</v>
@@ -1055,15 +1082,15 @@
         <v>0.14027522935779815</v>
       </c>
       <c r="E8" s="1">
-        <f>I8/188</f>
+        <f t="shared" si="1"/>
         <v>0.11702127659574468</v>
       </c>
       <c r="F8" s="1">
-        <f>C8/(10900-1433)</f>
+        <f t="shared" si="2"/>
         <v>0.1615083975916341</v>
       </c>
       <c r="G8" s="1">
-        <f>I8/(188-35)</f>
+        <f t="shared" si="3"/>
         <v>0.1437908496732026</v>
       </c>
       <c r="H8">
@@ -1074,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K8">
@@ -1094,6 +1121,10 @@
       </c>
       <c r="P8">
         <v>194</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0.5467625899280576</v>
       </c>
       <c r="R8" t="s">
         <v>35</v>
@@ -1136,7 +1167,7 @@
         <v>0.13146788990825689</v>
       </c>
       <c r="E9" s="1">
-        <f>I9/188</f>
+        <f t="shared" si="1"/>
         <v>0.18617021276595744</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1153,7 +1184,7 @@
         <v>35</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="K9">
@@ -1173,6 +1204,10 @@
       </c>
       <c r="P9">
         <v>281</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.45429169574319611</v>
       </c>
       <c r="R9" t="s">
         <v>36</v>
@@ -1212,7 +1247,7 @@
         <v>1.0275229357798165E-2</v>
       </c>
       <c r="E10" s="1">
-        <f>I10/188</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="1">
@@ -1230,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K10">
@@ -1250,6 +1285,10 @@
       </c>
       <c r="P10">
         <v>20</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
       </c>
       <c r="Y10" t="s">
         <v>14</v>
@@ -1277,7 +1316,7 @@
         <v>8.3944954128440372E-2</v>
       </c>
       <c r="E11" s="1">
-        <f>I11/188</f>
+        <f t="shared" si="1"/>
         <v>9.5744680851063829E-2</v>
       </c>
       <c r="F11" s="1">
@@ -1296,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="K11">
@@ -1316,6 +1355,10 @@
       </c>
       <c r="P11">
         <v>44</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0.86338797814207646</v>
       </c>
       <c r="Y11" t="s">
         <v>15</v>
@@ -1343,7 +1386,7 @@
         <v>5.2752293577981654E-2</v>
       </c>
       <c r="E12" s="1">
-        <f>I12/188</f>
+        <f t="shared" si="1"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="F12" s="1">
@@ -1362,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K12">
@@ -1382,6 +1425,10 @@
       </c>
       <c r="P12">
         <v>103</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.43130434782608695</v>
       </c>
       <c r="Y12" t="s">
         <v>16</v>
@@ -1409,7 +1456,7 @@
         <v>2.4128440366972478E-2</v>
       </c>
       <c r="E13" s="1">
-        <f>I13/188</f>
+        <f t="shared" si="1"/>
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="F13" s="1">
@@ -1428,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K13">
@@ -1448,6 +1495,10 @@
       </c>
       <c r="P13">
         <v>42</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0.53992395437262353</v>
       </c>
       <c r="Y13" t="s">
         <v>17</v>
@@ -1468,7 +1519,7 @@
         <v>10900</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:H14" si="2">SUM(D3:D13)</f>
+        <f t="shared" ref="D14" si="6">SUM(D3:D13)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="F14" s="1"/>
@@ -1481,27 +1532,27 @@
         <v>188</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:P14" si="3">SUM(K3:K13)</f>
+        <f t="shared" ref="K14:P14" si="7">SUM(K3:K13)</f>
         <v>2135</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1668</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2011</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1582</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1945</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1559</v>
       </c>
     </row>
@@ -1541,23 +1592,23 @@
         <v>1896</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:P18" si="4">L14-L9</f>
+        <f t="shared" ref="L18:P18" si="8">L14-L9</f>
         <v>1421</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1782</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1328</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1762</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1278</v>
       </c>
     </row>
